--- a/klassegr/klassegrenser_NSI.xlsx
+++ b/klassegr/klassegrenser_NSI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2775B51-FA14-4562-89EB-515727733B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB9E87-9B27-4F1B-AE93-7D7B8C6F3F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
@@ -503,7 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -562,7 +564,7 @@
         <v>30</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -591,7 +593,7 @@
         <v>30</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -620,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -649,7 +651,7 @@
         <v>30</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -678,7 +680,7 @@
         <v>30</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -707,7 +709,7 @@
         <v>30</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -736,7 +738,7 @@
         <v>29</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,7 +767,7 @@
         <v>29</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -794,7 +796,7 @@
         <v>29</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -823,7 +825,7 @@
         <v>30</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -852,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="I12">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -881,7 +883,7 @@
         <v>29</v>
       </c>
       <c r="I13">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,7 +912,7 @@
         <v>29</v>
       </c>
       <c r="I14">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -939,7 +941,7 @@
         <v>29</v>
       </c>
       <c r="I15">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -968,7 +970,7 @@
         <v>30</v>
       </c>
       <c r="I16">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -997,7 +999,7 @@
         <v>30</v>
       </c>
       <c r="I17">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1026,7 +1028,7 @@
         <v>30</v>
       </c>
       <c r="I18">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1055,7 +1057,7 @@
         <v>30</v>
       </c>
       <c r="I19">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1084,7 +1086,7 @@
         <v>30</v>
       </c>
       <c r="I20">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1113,7 +1115,7 @@
         <v>30</v>
       </c>
       <c r="I21">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1142,7 +1144,7 @@
         <v>30</v>
       </c>
       <c r="I22">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1171,7 +1173,7 @@
         <v>30</v>
       </c>
       <c r="I23">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1200,7 +1202,7 @@
         <v>30</v>
       </c>
       <c r="I24">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1229,7 +1231,7 @@
         <v>30</v>
       </c>
       <c r="I25">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1258,7 +1260,7 @@
         <v>30</v>
       </c>
       <c r="I26">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1287,7 +1289,7 @@
         <v>30</v>
       </c>
       <c r="I27">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1316,7 +1318,7 @@
         <v>30</v>
       </c>
       <c r="I28">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1345,7 +1347,7 @@
         <v>30</v>
       </c>
       <c r="I29">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1374,7 +1376,7 @@
         <v>30</v>
       </c>
       <c r="I30">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/klassegr/klassegrenser_NSI.xlsx
+++ b/klassegr/klassegrenser_NSI.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99EB9E87-9B27-4F1B-AE93-7D7B8C6F3F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817CD726-3834-451E-ABCF-63C3B5B16E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,7 +729,7 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G8">
         <v>24</v>
@@ -758,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G9">
         <v>24</v>
@@ -787,7 +787,7 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>24</v>
@@ -874,7 +874,7 @@
         <v>14</v>
       </c>
       <c r="F13">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G13">
         <v>24</v>
@@ -903,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="F14">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G14">
         <v>24</v>
@@ -932,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G15">
         <v>24</v>
